--- a/docs/閻魔帳.xlsx
+++ b/docs/閻魔帳.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vnomono\homepage\convenienceforteachers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938CFC32-6013-4175-B2EF-703D5A726E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5017EC-F233-4533-A7DC-D3600FBE79E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ3" sheetId="17" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="グラフ1" sheetId="15" r:id="rId3"/>
     <sheet name="科目変更面談" sheetId="14" r:id="rId4"/>
     <sheet name="政経" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="235">
   <si>
     <t>男</t>
   </si>
@@ -1254,6 +1255,40 @@
     <t>のぶなが</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2年選択日本史</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニホンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試</t>
+    <rPh sb="0" eb="1">
+      <t>タメシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>験</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1780,7 +1815,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2030,6 +2065,9 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -36079,8 +36117,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -36091,6 +36129,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
       <c r="B1" s="53"/>
       <c r="I1" s="53" t="s">
         <v>160</v>
@@ -36098,7 +36139,9 @@
       <c r="J1" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="53" t="s">
+        <v>234</v>
+      </c>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
@@ -36114,7 +36157,9 @@
       <c r="J2" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="L2" s="53"/>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
@@ -36137,9 +36182,15 @@
       <c r="AH2" s="53"/>
     </row>
     <row r="3" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>233</v>
+      </c>
       <c r="L3" s="53"/>
       <c r="M3" s="53"/>
       <c r="N3" s="53"/>
@@ -36183,9 +36234,15 @@
         <v>21</v>
       </c>
       <c r="H4" s="76"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="53">
+        <v>1</v>
+      </c>
       <c r="L4" s="53"/>
       <c r="M4" s="53"/>
       <c r="N4" s="53"/>
@@ -36210,7 +36267,7 @@
     </row>
     <row r="5" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>199</v>
@@ -36235,13 +36292,15 @@
       </c>
       <c r="I5" s="5">
         <f ca="1">ROUND(RAND()*100,0)</f>
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" ref="J5:J16" ca="1" si="0">ROUND(RAND()*100,0)</f>
-        <v>58</v>
-      </c>
-      <c r="K5" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="K5" s="22">
+        <v>6</v>
+      </c>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
@@ -36347,7 +36406,7 @@
     </row>
     <row r="6" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>199</v>
@@ -36372,13 +36431,15 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" ref="I6:J16" ca="1" si="1">ROUND(RAND()*100,0)</f>
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K6" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="K6" s="5">
+        <v>6</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -36484,7 +36545,7 @@
     </row>
     <row r="7" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>199</v>
@@ -36509,13 +36570,15 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="K7" s="5">
+        <v>7</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -36621,7 +36684,7 @@
     </row>
     <row r="8" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>199</v>
@@ -36646,13 +36709,15 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K8" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -36758,7 +36823,7 @@
     </row>
     <row r="9" spans="1:113" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>206</v>
@@ -36783,13 +36848,15 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="K9" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -36895,7 +36962,7 @@
     </row>
     <row r="10" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>206</v>
@@ -36920,13 +36987,15 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -37032,7 +37101,7 @@
     </row>
     <row r="11" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>206</v>
@@ -37057,13 +37126,15 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="K11" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="5">
+        <v>6</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -37169,7 +37240,7 @@
     </row>
     <row r="12" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>206</v>
@@ -37194,13 +37265,15 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="K12" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="K12" s="5">
+        <v>7</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -37306,7 +37379,7 @@
     </row>
     <row r="13" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>207</v>
@@ -37331,13 +37404,15 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="K13" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="K13" s="5">
+        <v>7</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -37443,7 +37518,7 @@
     </row>
     <row r="14" spans="1:113" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>207</v>
@@ -37468,13 +37543,15 @@
       </c>
       <c r="I14" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K14" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -37580,7 +37657,7 @@
     </row>
     <row r="15" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>207</v>
@@ -37605,13 +37682,15 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K15" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -37717,7 +37796,7 @@
     </row>
     <row r="16" spans="1:113" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>207</v>
@@ -37742,13 +37821,15 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K16" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="K16" s="5">
+        <v>5</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -39360,15 +39441,15 @@
       </c>
       <c r="I30" s="1">
         <f ca="1">SUM(I5:I26)</f>
-        <v>513</v>
+        <v>288</v>
       </c>
       <c r="J30" s="1">
         <f ca="1">SUM(J5:J26)</f>
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K30" s="1">
         <f>SUM(K5:K26)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -39486,15 +39567,15 @@
       </c>
       <c r="I31" s="5">
         <f ca="1">ROUND(I30/COUNT(I5:I26),2)</f>
-        <v>42.75</v>
+        <v>24</v>
       </c>
       <c r="J31" s="5">
         <f ca="1">ROUND(J30/COUNT(J5:J26),2)</f>
-        <v>39.92</v>
-      </c>
-      <c r="K31" s="5" t="e">
+        <v>40.08</v>
+      </c>
+      <c r="K31" s="5">
         <f>ROUND(K30/COUNT(K5:K26),2)</f>
-        <v>#DIV/0!</v>
+        <v>5.83</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -41153,4 +41234,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF4EE2C-2CFD-4FF1-BB68-D3C9EEBE32A7}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>